--- a/excel/fon_eigenvector_centrality.xlsx
+++ b/excel/fon_eigenvector_centrality.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.408440794791389</v>
+        <v>0.4084407947913888</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -401,7 +401,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nenad Anicic</t>
+          <t>Nina Turajlic</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.39695247427296</v>
+        <v>0.3969524742729598</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -431,11 +431,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nina Turajlic</t>
+          <t>Nenad Anicic</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3969524742729599</v>
+        <v>0.3969524742729598</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3633033600429838</v>
+        <v>0.3633033600429839</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2865472637181688</v>
+        <v>0.2865472637181689</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0756077620725091</v>
+        <v>0.07560776207250948</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -506,11 +506,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Srdja Bjeladinovic</t>
+          <t>Vidan Markovic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06509329065312752</v>
+        <v>0.0650932906531273</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -521,11 +521,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vidan Markovic</t>
+          <t>Srdja Bjeladinovic</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06509329065312743</v>
+        <v>0.06509329065312718</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01354669010392856</v>
+        <v>0.01354669010392867</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -551,71 +551,71 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bojan Tomic</t>
+          <t>Milos Milovanovic</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.551115123125783e-17</v>
+        <v>1.547373340571312e-15</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Zoran Sevarac</t>
+          <t>Dejan Simic</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.551115123125783e-17</v>
+        <v>1.507083483476502e-15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jelena Jovanovic</t>
+          <t>Miroslav Minovic</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.568479395608883e-17</v>
+        <v>1.451677191855626e-15</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dragan Djuric</t>
+          <t>Ivan Milenkovic</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6.690707024189582e-17</v>
+        <v>1.387778780781445e-15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vladan Devedzic</t>
+          <t>Sinisa Vlajic</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.170940074487958e-17</v>
+        <v>1.275166993271657e-15</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -626,26 +626,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nikola Milikic</t>
+          <t>Dusan Starcevic</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.387778780781446e-16</v>
+        <v>1.261819023346702e-15</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sasa Lazarevic</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.162897058579037e-15</v>
+        <v>1.110223024625156e-15</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.180359400900597e-15</v>
+        <v>1.01704830251053e-15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -671,26 +671,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Uros Sosevic</t>
+          <t>Ilija Antovic</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.221245327087672e-15</v>
+        <v>9.670588171963033e-16</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ilija Antovic</t>
+          <t>Sasa Lazarevic</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.304791538980185e-15</v>
+        <v>7.703645155801841e-16</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -701,11 +701,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dusan Starcevic</t>
+          <t>Uros Sosevic</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.5763483655433e-15</v>
+        <v>7.494005416219805e-16</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -716,11 +716,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dusan Savic</t>
+          <t>Jelena Jovanovic</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.732121390762842e-15</v>
+        <v>1.982600777241553e-16</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -731,11 +731,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sinisa Vlajic</t>
+          <t>Vladan Devedzic</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.737718669147458e-15</v>
+        <v>1.218479154867714e-16</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -746,60 +746,60 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Milos Milovanovic</t>
+          <t>Zoran Sevarac</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.859623566247137e-15</v>
+        <v>4.163336342344336e-17</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Miroslav Minovic</t>
+          <t>Dragan Djuric</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.91168067304349e-15</v>
+        <v>-9.677085994327877e-18</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ivan Milenkovic</t>
+          <t>Nikola Milikic</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.942890293094024e-15</v>
+        <v>-3.122502256758252e-17</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dejan Simic</t>
+          <t>Bojan Tomic</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.451733793034719e-15</v>
+        <v>-1.110223024625156e-16</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>

--- a/excel/fon_eigenvector_centrality.xlsx
+++ b/excel/fon_eigenvector_centrality.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4084407947913888</v>
+        <v>0.4084407947913892</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -401,11 +401,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nina Turajlic</t>
+          <t>Nenad Anicic</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.39695247427296</v>
+        <v>0.3969524742729599</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3969524742729598</v>
+        <v>0.3969524742729599</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -431,11 +431,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nenad Anicic</t>
+          <t>Nina Turajlic</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3969524742729598</v>
+        <v>0.3969524742729599</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.363303360042984</v>
+        <v>0.3633033600429836</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3633033600429839</v>
+        <v>0.3633033600429835</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2865472637181689</v>
+        <v>0.286547263718169</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07560776207250948</v>
+        <v>0.0756077620725097</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -506,11 +506,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vidan Markovic</t>
+          <t>Srdja Bjeladinovic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0650932906531273</v>
+        <v>0.06509329065312723</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -521,11 +521,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Srdja Bjeladinovic</t>
+          <t>Vidan Markovic</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06509329065312718</v>
+        <v>0.06509329065312695</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01354669010392867</v>
+        <v>0.01354669010392906</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -551,11 +551,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Milos Milovanovic</t>
+          <t>Dejan Simic</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.547373340571312e-15</v>
+        <v>2.671318010332081e-15</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -566,11 +566,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dejan Simic</t>
+          <t>Milos Milovanovic</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.507083483476502e-15</v>
+        <v>2.02615701994091e-15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.451677191855626e-15</v>
+        <v>2.008146315820864e-15</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.387778780781445e-15</v>
+        <v>1.915134717478395e-15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -611,11 +611,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sinisa Vlajic</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.275166993271657e-15</v>
+        <v>1.838806884535415e-15</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -626,26 +626,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dusan Starcevic</t>
+          <t>Sinisa Vlajic</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.261819023346702e-15</v>
+        <v>1.818713724143813e-15</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dusan Savic</t>
+          <t>Milos Milic</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.110223024625156e-15</v>
+        <v>1.747456339373298e-15</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -656,26 +656,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Milos Milic</t>
+          <t>Dusan Starcevic</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.01704830251053e-15</v>
+        <v>1.745651915774759e-15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ilija Antovic</t>
+          <t>Sasa Lazarevic</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.670588171963033e-16</v>
+        <v>1.718505850540351e-15</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -686,11 +686,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sasa Lazarevic</t>
+          <t>Ilija Antovic</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.703645155801841e-16</v>
+        <v>1.69359149430671e-15</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.494005416219805e-16</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -716,11 +716,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jelena Jovanovic</t>
+          <t>Nikola Milikic</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.982600777241553e-16</v>
+        <v>1.193489751472043e-15</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -731,11 +731,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Vladan Devedzic</t>
+          <t>Zoran Sevarac</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.218479154867714e-16</v>
+        <v>1.186550857568136e-15</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -746,11 +746,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Zoran Sevarac</t>
+          <t>Bojan Tomic</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.163336342344336e-17</v>
+        <v>1.165734175856414e-15</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -761,11 +761,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dragan Djuric</t>
+          <t>Jelena Jovanovic</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-9.677085994327877e-18</v>
+        <v>1.160607995793649e-15</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -776,11 +776,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nikola Milikic</t>
+          <t>Vladan Devedzic</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-3.122502256758252e-17</v>
+        <v>1.148807755184276e-15</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -791,11 +791,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bojan Tomic</t>
+          <t>Dragan Djuric</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.110223024625156e-16</v>
+        <v>4.891154044488584e-16</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>

--- a/excel/fon_eigenvector_centrality.xlsx
+++ b/excel/fon_eigenvector_centrality.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4084407947913892</v>
+        <v>0.4084407947913888</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3969524742729599</v>
+        <v>0.39695247427296</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3969524742729599</v>
+        <v>0.39695247427296</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3633033600429836</v>
+        <v>0.3633033600429841</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3633033600429835</v>
+        <v>0.3633033600429839</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.286547263718169</v>
+        <v>0.2865472637181687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0756077620725097</v>
+        <v>0.07560776207250938</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06509329065312723</v>
+        <v>0.06509329065312758</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06509329065312695</v>
+        <v>0.06509329065312743</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01354669010392906</v>
+        <v>0.01354669010392888</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -551,11 +551,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dejan Simic</t>
+          <t>Miroslav Minovic</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.671318010332081e-15</v>
+        <v>2.602444138487488e-16</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.02615701994091e-15</v>
+        <v>1.942890293094024e-16</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -581,11 +581,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Miroslav Minovic</t>
+          <t>Ivan Milenkovic</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.008146315820864e-15</v>
+        <v>1.52655665885959e-16</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -596,11 +596,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ivan Milenkovic</t>
+          <t>Dusan Starcevic</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.915134717478395e-15</v>
+        <v>9.835937234663417e-17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -611,15 +611,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dusan Savic</t>
+          <t>Uros Sosevic</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.838806884535415e-15</v>
+        <v>-5.551115123125784e-17</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.818713724143813e-15</v>
+        <v>-6.645868686057424e-17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -641,11 +641,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Milos Milic</t>
+          <t>Bojan Tomic</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.747456339373298e-15</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -656,26 +656,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dusan Starcevic</t>
+          <t>Nikola Milikic</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.745651915774759e-15</v>
+        <v>-1.665334536937735e-16</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sasa Lazarevic</t>
+          <t>Zoran Sevarac</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.718505850540351e-15</v>
+        <v>-1.80411241501588e-16</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -686,41 +686,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ilija Antovic</t>
+          <t>Dejan Simic</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.69359149430671e-15</v>
+        <v>-2.189503932024001e-16</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Uros Sosevic</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>-2.220446049250314e-16</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nikola Milikic</t>
+          <t>Milos Milic</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.193489751472043e-15</v>
+        <v>-2.292886944870413e-16</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -731,11 +731,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Zoran Sevarac</t>
+          <t>Sasa Lazarevic</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.186550857568136e-15</v>
+        <v>-3.623513023209438e-16</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -746,11 +746,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bojan Tomic</t>
+          <t>Ilija Antovic</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.165734175856414e-15</v>
+        <v>-3.918128171053147e-16</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -761,11 +761,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jelena Jovanovic</t>
+          <t>Dragan Djuric</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.160607995793649e-15</v>
+        <v>-4.050289493689287e-16</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.148807755184276e-15</v>
+        <v>-4.062171962594879e-16</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -791,11 +791,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dragan Djuric</t>
+          <t>Jelena Jovanovic</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.891154044488584e-16</v>
+        <v>-4.837328074741929e-16</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
